--- a/medicine/Enfance/Raids_ukrainiens_contre_la_pédopornographie_en_2004/Raids_ukrainiens_contre_la_pédopornographie_en_2004.xlsx
+++ b/medicine/Enfance/Raids_ukrainiens_contre_la_pédopornographie_en_2004/Raids_ukrainiens_contre_la_pédopornographie_en_2004.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raids_ukrainiens_contre_la_p%C3%A9dopornographie_en_2004</t>
+          <t>Raids_ukrainiens_contre_la_pédopornographie_en_2004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les raids ukrainiens contre la pornographie juvénile de 2004 ont eu lieu quelques mois avant la première révolution orange, lorsque la police ukrainienne a fait une descente dans un réseau de pornographie juvénile softcore opérant dans les villes de Kiev, Kharkiv et Simferopol. Le ring fonctionnait depuis 2001 et utilisait une agence de mannequins comme façade[1],[2],[3],[4].
-Le Département des enquêtes criminelles du ministère de l'Intérieur a mené les perquisitions. Le chef adjoint du département, Vitaly Yarema, a déclaré que les comptes bancaires de l'agence, contenant des centaines de milliers de dollars, avaient été gelés[1].
-Les raids ont été menés après une enquête conjointe entre la police ukrainienne et Interpol. En 2005, le Département d'État des États-Unis a annoncé qu'il y avait une coopération accrue entre la police ukrainienne et d'autres organismes chargés de l'application des lois à l'échelle internationale[5].
-L'enquête qui a suivi les raids a été achevée le 6 avril 2005[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les raids ukrainiens contre la pornographie juvénile de 2004 ont eu lieu quelques mois avant la première révolution orange, lorsque la police ukrainienne a fait une descente dans un réseau de pornographie juvénile softcore opérant dans les villes de Kiev, Kharkiv et Simferopol. Le ring fonctionnait depuis 2001 et utilisait une agence de mannequins comme façade.
+Le Département des enquêtes criminelles du ministère de l'Intérieur a mené les perquisitions. Le chef adjoint du département, Vitaly Yarema, a déclaré que les comptes bancaires de l'agence, contenant des centaines de milliers de dollars, avaient été gelés.
+Les raids ont été menés après une enquête conjointe entre la police ukrainienne et Interpol. En 2005, le Département d'État des États-Unis a annoncé qu'il y avait une coopération accrue entre la police ukrainienne et d'autres organismes chargés de l'application des lois à l'échelle internationale.
+L'enquête qui a suivi les raids a été achevée le 6 avril 2005.
 </t>
         </is>
       </c>
